--- a/BackTest/2020-01-13 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-13 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -874,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1224,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1259,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1399,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2358,6 +2417,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2399,6 +2459,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2440,6 +2501,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2481,6 +2543,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2520,6 +2583,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2559,6 +2623,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2598,6 +2663,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2637,6 +2703,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2676,6 +2743,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2717,6 +2785,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2756,6 +2825,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2797,6 +2867,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2838,6 +2909,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2877,6 +2949,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2916,6 +2989,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2955,6 +3029,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2994,6 +3069,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3033,6 +3109,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3072,6 +3149,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3111,6 +3189,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3150,6 +3229,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3189,6 +3269,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3228,6 +3309,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3267,6 +3349,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3306,6 +3389,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3345,6 +3429,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3384,6 +3469,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3423,6 +3509,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3462,6 +3549,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3501,6 +3589,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3540,6 +3629,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3579,6 +3669,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3618,6 +3709,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3657,6 +3749,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3696,6 +3789,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3735,6 +3829,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3774,6 +3869,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3813,6 +3909,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3852,6 +3949,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3891,6 +3989,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3930,6 +4029,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3969,6 +4069,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4008,6 +4109,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4047,6 +4149,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4084,6 +4187,9 @@
         </is>
       </c>
       <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1.053439018153925</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4111,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4119,6 +4225,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4146,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4154,6 +4261,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4189,6 +4297,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,6 +4333,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4259,6 +4369,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4294,6 +4405,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4329,6 +4441,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4364,6 +4477,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4399,6 +4513,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-13 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39270</v>
+        <v>40570</v>
       </c>
       <c r="C2" t="n">
-        <v>39110</v>
+        <v>40570</v>
       </c>
       <c r="D2" t="n">
-        <v>39270</v>
+        <v>40570</v>
       </c>
       <c r="E2" t="n">
-        <v>39110</v>
+        <v>40570</v>
       </c>
       <c r="F2" t="n">
-        <v>27.0331</v>
+        <v>11.6087</v>
       </c>
       <c r="G2" t="n">
-        <v>-740.1361046100002</v>
+        <v>-383.4957046100002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39300</v>
+        <v>40220</v>
       </c>
       <c r="C3" t="n">
-        <v>39200</v>
+        <v>40220</v>
       </c>
       <c r="D3" t="n">
-        <v>39300</v>
+        <v>40220</v>
       </c>
       <c r="E3" t="n">
-        <v>39200</v>
+        <v>40220</v>
       </c>
       <c r="F3" t="n">
-        <v>1.3057</v>
+        <v>0.8381999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-738.8304046100002</v>
+        <v>-384.3339046100002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39290</v>
+        <v>40170</v>
       </c>
       <c r="C4" t="n">
-        <v>39290</v>
+        <v>40170</v>
       </c>
       <c r="D4" t="n">
-        <v>39290</v>
+        <v>40170</v>
       </c>
       <c r="E4" t="n">
-        <v>39290</v>
+        <v>40170</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2</v>
+        <v>35.7901</v>
       </c>
       <c r="G4" t="n">
-        <v>-738.6304046100001</v>
+        <v>-420.1240046100002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39260</v>
+        <v>40170</v>
       </c>
       <c r="C5" t="n">
-        <v>39260</v>
+        <v>40170</v>
       </c>
       <c r="D5" t="n">
-        <v>39260</v>
+        <v>40170</v>
       </c>
       <c r="E5" t="n">
-        <v>39260</v>
+        <v>40170</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4</v>
+        <v>2.9191</v>
       </c>
       <c r="G5" t="n">
-        <v>-739.0304046100001</v>
+        <v>-420.1240046100002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39260</v>
+        <v>40090</v>
       </c>
       <c r="C6" t="n">
-        <v>39260</v>
+        <v>40090</v>
       </c>
       <c r="D6" t="n">
-        <v>39260</v>
+        <v>40090</v>
       </c>
       <c r="E6" t="n">
-        <v>39260</v>
+        <v>40090</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4959</v>
+        <v>0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>-739.0304046100001</v>
+        <v>-420.5240046100001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39400</v>
+        <v>39890</v>
       </c>
       <c r="C7" t="n">
-        <v>39390</v>
+        <v>39880</v>
       </c>
       <c r="D7" t="n">
-        <v>39410</v>
+        <v>39890</v>
       </c>
       <c r="E7" t="n">
-        <v>39380</v>
+        <v>39880</v>
       </c>
       <c r="F7" t="n">
-        <v>9.7201</v>
+        <v>2.1121</v>
       </c>
       <c r="G7" t="n">
-        <v>-729.3103046100001</v>
+        <v>-422.6361046100001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>39520</v>
+        <v>39880</v>
       </c>
       <c r="C8" t="n">
-        <v>39490</v>
+        <v>39880</v>
       </c>
       <c r="D8" t="n">
-        <v>39520</v>
+        <v>39880</v>
       </c>
       <c r="E8" t="n">
-        <v>39490</v>
+        <v>39880</v>
       </c>
       <c r="F8" t="n">
-        <v>8.1814</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>-721.1289046100001</v>
+        <v>-422.6361046100001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39490</v>
+        <v>39880</v>
       </c>
       <c r="C9" t="n">
-        <v>39490</v>
+        <v>39800</v>
       </c>
       <c r="D9" t="n">
-        <v>39490</v>
+        <v>39880</v>
       </c>
       <c r="E9" t="n">
-        <v>39490</v>
+        <v>39800</v>
       </c>
       <c r="F9" t="n">
-        <v>15.2092</v>
+        <v>0.4092</v>
       </c>
       <c r="G9" t="n">
-        <v>-721.1289046100001</v>
+        <v>-423.0453046100001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39480</v>
+        <v>39800</v>
       </c>
       <c r="C10" t="n">
-        <v>39470</v>
+        <v>39710</v>
       </c>
       <c r="D10" t="n">
-        <v>39480</v>
+        <v>39800</v>
       </c>
       <c r="E10" t="n">
-        <v>39470</v>
+        <v>39710</v>
       </c>
       <c r="F10" t="n">
-        <v>15.975</v>
+        <v>37.9982</v>
       </c>
       <c r="G10" t="n">
-        <v>-737.1039046100001</v>
+        <v>-461.0435046100001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -774,10 +774,10 @@
         <v>39720</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>2.9872</v>
       </c>
       <c r="G11" t="n">
-        <v>-737.0739046100001</v>
+        <v>-458.0563046100002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>39720</v>
+        <v>39710</v>
       </c>
       <c r="C12" t="n">
-        <v>39720</v>
+        <v>39710</v>
       </c>
       <c r="D12" t="n">
-        <v>39720</v>
+        <v>39710</v>
       </c>
       <c r="E12" t="n">
-        <v>39720</v>
+        <v>39710</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3433</v>
+        <v>8.033099999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-737.0739046100001</v>
+        <v>-466.0894046100001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>39720</v>
+        <v>39710</v>
       </c>
       <c r="C13" t="n">
-        <v>39720</v>
+        <v>39690</v>
       </c>
       <c r="D13" t="n">
-        <v>39720</v>
+        <v>39710</v>
       </c>
       <c r="E13" t="n">
-        <v>39720</v>
+        <v>39690</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>101.5691</v>
       </c>
       <c r="G13" t="n">
-        <v>-737.0739046100001</v>
+        <v>-567.6585046100001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>39710</v>
+        <v>39690</v>
       </c>
       <c r="C14" t="n">
-        <v>39710</v>
+        <v>39690</v>
       </c>
       <c r="D14" t="n">
-        <v>39710</v>
+        <v>39690</v>
       </c>
       <c r="E14" t="n">
-        <v>39710</v>
+        <v>39690</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7966</v>
+        <v>12.4257</v>
       </c>
       <c r="G14" t="n">
-        <v>-738.8705046100001</v>
+        <v>-567.6585046100001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40060</v>
+        <v>39800</v>
       </c>
       <c r="C15" t="n">
-        <v>39590</v>
+        <v>39800</v>
       </c>
       <c r="D15" t="n">
-        <v>40060</v>
+        <v>39800</v>
       </c>
       <c r="E15" t="n">
-        <v>39590</v>
+        <v>39800</v>
       </c>
       <c r="F15" t="n">
-        <v>63.3482</v>
+        <v>0.9196</v>
       </c>
       <c r="G15" t="n">
-        <v>-802.2187046100001</v>
+        <v>-566.7389046100002</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>39640</v>
+        <v>39690</v>
       </c>
       <c r="C16" t="n">
-        <v>39640</v>
+        <v>39690</v>
       </c>
       <c r="D16" t="n">
-        <v>39640</v>
+        <v>39690</v>
       </c>
       <c r="E16" t="n">
-        <v>39640</v>
+        <v>39690</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0413</v>
+        <v>2.067</v>
       </c>
       <c r="G16" t="n">
-        <v>-802.1774046100002</v>
+        <v>-568.8059046100002</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>39640</v>
+        <v>39810</v>
       </c>
       <c r="C17" t="n">
-        <v>39640</v>
+        <v>39810</v>
       </c>
       <c r="D17" t="n">
-        <v>39640</v>
+        <v>39810</v>
       </c>
       <c r="E17" t="n">
-        <v>39640</v>
+        <v>39810</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0392</v>
+        <v>18.292</v>
       </c>
       <c r="G17" t="n">
-        <v>-802.1774046100002</v>
+        <v>-550.5139046100002</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>39480</v>
+        <v>39810</v>
       </c>
       <c r="C18" t="n">
-        <v>39480</v>
+        <v>39490</v>
       </c>
       <c r="D18" t="n">
-        <v>39480</v>
+        <v>39810</v>
       </c>
       <c r="E18" t="n">
-        <v>39480</v>
+        <v>39490</v>
       </c>
       <c r="F18" t="n">
-        <v>3.761</v>
+        <v>9.785</v>
       </c>
       <c r="G18" t="n">
-        <v>-805.9384046100001</v>
+        <v>-560.2989046100001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,31 +1050,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>39390</v>
+        <v>39530</v>
       </c>
       <c r="C19" t="n">
-        <v>39390</v>
+        <v>39540</v>
       </c>
       <c r="D19" t="n">
-        <v>39390</v>
+        <v>39540</v>
       </c>
       <c r="E19" t="n">
-        <v>39390</v>
+        <v>39530</v>
       </c>
       <c r="F19" t="n">
-        <v>4.261</v>
+        <v>1.1126</v>
       </c>
       <c r="G19" t="n">
-        <v>-810.1994046100001</v>
+        <v>-559.1863046100001</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K19" t="n">
+        <v>39490</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1086,32 +1090,40 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>39680</v>
+        <v>39520</v>
       </c>
       <c r="C20" t="n">
-        <v>39680</v>
+        <v>39410</v>
       </c>
       <c r="D20" t="n">
-        <v>39680</v>
+        <v>39520</v>
       </c>
       <c r="E20" t="n">
-        <v>39680</v>
+        <v>39410</v>
       </c>
       <c r="F20" t="n">
-        <v>3.7233</v>
+        <v>2.6889</v>
       </c>
       <c r="G20" t="n">
-        <v>-806.4761046100001</v>
+        <v>-561.8752046100001</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>39540</v>
+      </c>
+      <c r="K20" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,32 +1134,40 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>39560</v>
+        <v>39410</v>
       </c>
       <c r="C21" t="n">
-        <v>39560</v>
+        <v>39410</v>
       </c>
       <c r="D21" t="n">
-        <v>39560</v>
+        <v>39410</v>
       </c>
       <c r="E21" t="n">
-        <v>39560</v>
+        <v>39410</v>
       </c>
       <c r="F21" t="n">
-        <v>12.5442</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-819.0203046100002</v>
+        <v>-561.8752046100001</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>39410</v>
+      </c>
+      <c r="K21" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,32 +1178,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>39540</v>
+        <v>39620</v>
       </c>
       <c r="C22" t="n">
-        <v>39540</v>
+        <v>39620</v>
       </c>
       <c r="D22" t="n">
-        <v>39540</v>
+        <v>39620</v>
       </c>
       <c r="E22" t="n">
-        <v>39540</v>
+        <v>39620</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3556</v>
+        <v>1.6773</v>
       </c>
       <c r="G22" t="n">
-        <v>-819.3759046100001</v>
+        <v>-560.1979046100001</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>39410</v>
+      </c>
+      <c r="K22" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,32 +1222,40 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40450</v>
+        <v>39660</v>
       </c>
       <c r="C23" t="n">
-        <v>40460</v>
+        <v>39660</v>
       </c>
       <c r="D23" t="n">
-        <v>40460</v>
+        <v>39660</v>
       </c>
       <c r="E23" t="n">
-        <v>40440</v>
+        <v>39660</v>
       </c>
       <c r="F23" t="n">
-        <v>31.1772</v>
+        <v>1.113</v>
       </c>
       <c r="G23" t="n">
-        <v>-788.1987046100002</v>
+        <v>-559.0849046100001</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>39620</v>
+      </c>
+      <c r="K23" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,32 +1266,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40480</v>
+        <v>39740</v>
       </c>
       <c r="C24" t="n">
-        <v>40500</v>
+        <v>39740</v>
       </c>
       <c r="D24" t="n">
-        <v>40500</v>
+        <v>39740</v>
       </c>
       <c r="E24" t="n">
-        <v>40470</v>
+        <v>39740</v>
       </c>
       <c r="F24" t="n">
-        <v>4.3741</v>
+        <v>0.536</v>
       </c>
       <c r="G24" t="n">
-        <v>-783.8246046100002</v>
+        <v>-558.5489046100001</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>39660</v>
+      </c>
+      <c r="K24" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1310,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>40500</v>
+        <v>39890</v>
       </c>
       <c r="C25" t="n">
-        <v>40900</v>
+        <v>40180</v>
       </c>
       <c r="D25" t="n">
-        <v>40900</v>
+        <v>40180</v>
       </c>
       <c r="E25" t="n">
-        <v>40500</v>
+        <v>39890</v>
       </c>
       <c r="F25" t="n">
-        <v>53.0311548</v>
+        <v>31.1693</v>
       </c>
       <c r="G25" t="n">
-        <v>-730.7934498100002</v>
+        <v>-527.3796046100001</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>39740</v>
+      </c>
+      <c r="K25" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,32 +1354,38 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>40910</v>
+        <v>39780</v>
       </c>
       <c r="C26" t="n">
-        <v>40110</v>
+        <v>39780</v>
       </c>
       <c r="D26" t="n">
-        <v>41010</v>
+        <v>39780</v>
       </c>
       <c r="E26" t="n">
-        <v>40110</v>
+        <v>39780</v>
       </c>
       <c r="F26" t="n">
-        <v>54.4343</v>
+        <v>0.6268</v>
       </c>
       <c r="G26" t="n">
-        <v>-785.2277498100002</v>
+        <v>-528.0064046100001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1396,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>40900</v>
+        <v>39680</v>
       </c>
       <c r="C27" t="n">
-        <v>40490</v>
+        <v>39670</v>
       </c>
       <c r="D27" t="n">
-        <v>41200</v>
+        <v>39680</v>
       </c>
       <c r="E27" t="n">
-        <v>40480</v>
+        <v>39670</v>
       </c>
       <c r="F27" t="n">
-        <v>333.4164</v>
+        <v>14.8011</v>
       </c>
       <c r="G27" t="n">
-        <v>-451.8113498100002</v>
+        <v>-542.8075046100001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1420,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1438,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40440</v>
+        <v>39410</v>
       </c>
       <c r="C28" t="n">
-        <v>40490</v>
+        <v>39420</v>
       </c>
       <c r="D28" t="n">
-        <v>40490</v>
+        <v>39460</v>
       </c>
       <c r="E28" t="n">
-        <v>40440</v>
+        <v>39410</v>
       </c>
       <c r="F28" t="n">
-        <v>6.6498</v>
+        <v>27.755</v>
       </c>
       <c r="G28" t="n">
-        <v>-451.8113498100002</v>
+        <v>-570.5625046100001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,32 +1480,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40490</v>
+        <v>39420</v>
       </c>
       <c r="C29" t="n">
-        <v>40210</v>
+        <v>39680</v>
       </c>
       <c r="D29" t="n">
-        <v>40500</v>
+        <v>39680</v>
       </c>
       <c r="E29" t="n">
-        <v>40210</v>
+        <v>39420</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>5.2243</v>
       </c>
       <c r="G29" t="n">
-        <v>-457.8113498100002</v>
+        <v>-565.3382046100002</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>39420</v>
+      </c>
+      <c r="K29" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,32 +1524,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40230</v>
+        <v>39410</v>
       </c>
       <c r="C30" t="n">
-        <v>40150</v>
+        <v>39110</v>
       </c>
       <c r="D30" t="n">
-        <v>40230</v>
+        <v>39410</v>
       </c>
       <c r="E30" t="n">
-        <v>40150</v>
+        <v>39110</v>
       </c>
       <c r="F30" t="n">
-        <v>285.8248</v>
+        <v>174.7979</v>
       </c>
       <c r="G30" t="n">
-        <v>-743.6361498100002</v>
+        <v>-740.1361046100002</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>39680</v>
+      </c>
+      <c r="K30" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1568,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>40080</v>
+        <v>39270</v>
       </c>
       <c r="C31" t="n">
-        <v>39900</v>
+        <v>39110</v>
       </c>
       <c r="D31" t="n">
-        <v>40080</v>
+        <v>39270</v>
       </c>
       <c r="E31" t="n">
-        <v>39900</v>
+        <v>39110</v>
       </c>
       <c r="F31" t="n">
-        <v>1.5</v>
+        <v>27.0331</v>
       </c>
       <c r="G31" t="n">
-        <v>-745.1361498100002</v>
+        <v>-740.1361046100002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>39110</v>
+      </c>
+      <c r="K31" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1612,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>39860</v>
+        <v>39300</v>
       </c>
       <c r="C32" t="n">
-        <v>39800</v>
+        <v>39200</v>
       </c>
       <c r="D32" t="n">
-        <v>39860</v>
+        <v>39300</v>
       </c>
       <c r="E32" t="n">
-        <v>39800</v>
+        <v>39200</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>1.3057</v>
       </c>
       <c r="G32" t="n">
-        <v>-745.6361498100002</v>
+        <v>-738.8304046100002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>39110</v>
+      </c>
+      <c r="K32" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1656,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>40050</v>
+        <v>39290</v>
       </c>
       <c r="C33" t="n">
-        <v>40050</v>
+        <v>39290</v>
       </c>
       <c r="D33" t="n">
-        <v>40050</v>
+        <v>39290</v>
       </c>
       <c r="E33" t="n">
-        <v>40050</v>
+        <v>39290</v>
       </c>
       <c r="F33" t="n">
-        <v>3.6487</v>
+        <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>-741.9874498100003</v>
+        <v>-738.6304046100001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>39200</v>
+      </c>
+      <c r="K33" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1700,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>40420</v>
+        <v>39260</v>
       </c>
       <c r="C34" t="n">
-        <v>41100</v>
+        <v>39260</v>
       </c>
       <c r="D34" t="n">
-        <v>41100</v>
+        <v>39260</v>
       </c>
       <c r="E34" t="n">
-        <v>40420</v>
+        <v>39260</v>
       </c>
       <c r="F34" t="n">
-        <v>299.7352</v>
+        <v>0.4</v>
       </c>
       <c r="G34" t="n">
-        <v>-442.2522498100003</v>
+        <v>-739.0304046100001</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>39290</v>
+      </c>
+      <c r="K34" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1744,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>41100</v>
+        <v>39260</v>
       </c>
       <c r="C35" t="n">
-        <v>40900</v>
+        <v>39260</v>
       </c>
       <c r="D35" t="n">
-        <v>41100</v>
+        <v>39260</v>
       </c>
       <c r="E35" t="n">
-        <v>40900</v>
+        <v>39260</v>
       </c>
       <c r="F35" t="n">
-        <v>41.202</v>
+        <v>0.4959</v>
       </c>
       <c r="G35" t="n">
-        <v>-483.4542498100002</v>
+        <v>-739.0304046100001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>39260</v>
+      </c>
+      <c r="K35" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1788,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>40900</v>
+        <v>39400</v>
       </c>
       <c r="C36" t="n">
-        <v>40620</v>
+        <v>39390</v>
       </c>
       <c r="D36" t="n">
-        <v>40900</v>
+        <v>39410</v>
       </c>
       <c r="E36" t="n">
-        <v>40620</v>
+        <v>39380</v>
       </c>
       <c r="F36" t="n">
-        <v>70</v>
+        <v>9.7201</v>
       </c>
       <c r="G36" t="n">
-        <v>-553.4542498100002</v>
+        <v>-729.3103046100001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>39260</v>
+      </c>
+      <c r="K36" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1832,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>41040</v>
+        <v>39520</v>
       </c>
       <c r="C37" t="n">
-        <v>41040</v>
+        <v>39490</v>
       </c>
       <c r="D37" t="n">
-        <v>41040</v>
+        <v>39520</v>
       </c>
       <c r="E37" t="n">
-        <v>41040</v>
+        <v>39490</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03</v>
+        <v>8.1814</v>
       </c>
       <c r="G37" t="n">
-        <v>-553.4242498100002</v>
+        <v>-721.1289046100001</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>39390</v>
+      </c>
+      <c r="K37" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1876,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40600</v>
+        <v>39490</v>
       </c>
       <c r="C38" t="n">
-        <v>40590</v>
+        <v>39490</v>
       </c>
       <c r="D38" t="n">
-        <v>40600</v>
+        <v>39490</v>
       </c>
       <c r="E38" t="n">
-        <v>40590</v>
+        <v>39490</v>
       </c>
       <c r="F38" t="n">
-        <v>7.8686</v>
+        <v>15.2092</v>
       </c>
       <c r="G38" t="n">
-        <v>-561.2928498100002</v>
+        <v>-721.1289046100001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K38" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1920,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>40590</v>
+        <v>39480</v>
       </c>
       <c r="C39" t="n">
-        <v>40470</v>
+        <v>39470</v>
       </c>
       <c r="D39" t="n">
-        <v>40590</v>
+        <v>39480</v>
       </c>
       <c r="E39" t="n">
-        <v>40470</v>
+        <v>39470</v>
       </c>
       <c r="F39" t="n">
-        <v>1.5403</v>
+        <v>15.975</v>
       </c>
       <c r="G39" t="n">
-        <v>-562.8331498100002</v>
+        <v>-737.1039046100001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K39" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1964,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>40470</v>
+        <v>39720</v>
       </c>
       <c r="C40" t="n">
-        <v>40000</v>
+        <v>39720</v>
       </c>
       <c r="D40" t="n">
-        <v>40470</v>
+        <v>39720</v>
       </c>
       <c r="E40" t="n">
-        <v>40000</v>
+        <v>39720</v>
       </c>
       <c r="F40" t="n">
-        <v>100.3256</v>
+        <v>0.03</v>
       </c>
       <c r="G40" t="n">
-        <v>-663.1587498100002</v>
+        <v>-737.0739046100001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>39470</v>
+      </c>
+      <c r="K40" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,22 +2008,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="C41" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="D41" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="E41" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>0.3433</v>
       </c>
       <c r="G41" t="n">
-        <v>-669.1587498100002</v>
+        <v>-737.0739046100001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1866,8 +2032,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,22 +2050,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="C42" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="D42" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="E42" t="n">
-        <v>39850</v>
+        <v>39720</v>
       </c>
       <c r="F42" t="n">
-        <v>3.6854</v>
+        <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-669.1587498100002</v>
+        <v>-737.0739046100001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1902,8 +2074,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,22 +2092,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>39850</v>
+        <v>39710</v>
       </c>
       <c r="C43" t="n">
-        <v>39850</v>
+        <v>39710</v>
       </c>
       <c r="D43" t="n">
-        <v>39850</v>
+        <v>39710</v>
       </c>
       <c r="E43" t="n">
-        <v>39850</v>
+        <v>39710</v>
       </c>
       <c r="F43" t="n">
-        <v>26.4751</v>
+        <v>1.7966</v>
       </c>
       <c r="G43" t="n">
-        <v>-669.1587498100002</v>
+        <v>-738.8705046100001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1938,8 +2116,14 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2134,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>39860</v>
+        <v>40060</v>
       </c>
       <c r="C44" t="n">
-        <v>39860</v>
+        <v>39590</v>
       </c>
       <c r="D44" t="n">
-        <v>39860</v>
+        <v>40060</v>
       </c>
       <c r="E44" t="n">
-        <v>39860</v>
+        <v>39590</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8864</v>
+        <v>63.3482</v>
       </c>
       <c r="G44" t="n">
-        <v>-668.2723498100003</v>
+        <v>-802.2187046100001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2158,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2176,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="C45" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="D45" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="E45" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2509</v>
+        <v>0.0413</v>
       </c>
       <c r="G45" t="n">
-        <v>-668.0214498100003</v>
+        <v>-802.1774046100002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2200,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2218,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="C46" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="D46" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="E46" t="n">
-        <v>40340</v>
+        <v>39640</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8475</v>
+        <v>0.0392</v>
       </c>
       <c r="G46" t="n">
-        <v>-668.0214498100003</v>
+        <v>-802.1774046100002</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2242,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2260,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>40340</v>
+        <v>39480</v>
       </c>
       <c r="C47" t="n">
-        <v>40340</v>
+        <v>39480</v>
       </c>
       <c r="D47" t="n">
-        <v>40340</v>
+        <v>39480</v>
       </c>
       <c r="E47" t="n">
-        <v>40340</v>
+        <v>39480</v>
       </c>
       <c r="F47" t="n">
-        <v>0.176</v>
+        <v>3.761</v>
       </c>
       <c r="G47" t="n">
-        <v>-668.0214498100003</v>
+        <v>-805.9384046100001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2284,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2302,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>39940</v>
+        <v>39390</v>
       </c>
       <c r="C48" t="n">
-        <v>39940</v>
+        <v>39390</v>
       </c>
       <c r="D48" t="n">
-        <v>39940</v>
+        <v>39390</v>
       </c>
       <c r="E48" t="n">
-        <v>39940</v>
+        <v>39390</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1386</v>
+        <v>4.261</v>
       </c>
       <c r="G48" t="n">
-        <v>-668.1600498100003</v>
+        <v>-810.1994046100001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2326,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2344,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>39950</v>
+        <v>39680</v>
       </c>
       <c r="C49" t="n">
-        <v>39970</v>
+        <v>39680</v>
       </c>
       <c r="D49" t="n">
-        <v>39970</v>
+        <v>39680</v>
       </c>
       <c r="E49" t="n">
-        <v>39950</v>
+        <v>39680</v>
       </c>
       <c r="F49" t="n">
-        <v>3.8562</v>
+        <v>3.7233</v>
       </c>
       <c r="G49" t="n">
-        <v>-664.3038498100003</v>
+        <v>-806.4761046100001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2368,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2386,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>39960</v>
+        <v>39560</v>
       </c>
       <c r="C50" t="n">
-        <v>39860</v>
+        <v>39560</v>
       </c>
       <c r="D50" t="n">
-        <v>39960</v>
+        <v>39560</v>
       </c>
       <c r="E50" t="n">
-        <v>39860</v>
+        <v>39560</v>
       </c>
       <c r="F50" t="n">
-        <v>30.6257</v>
+        <v>12.5442</v>
       </c>
       <c r="G50" t="n">
-        <v>-694.9295498100004</v>
+        <v>-819.0203046100002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2410,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2428,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>39870</v>
+        <v>39540</v>
       </c>
       <c r="C51" t="n">
-        <v>39870</v>
+        <v>39540</v>
       </c>
       <c r="D51" t="n">
-        <v>39870</v>
+        <v>39540</v>
       </c>
       <c r="E51" t="n">
-        <v>39870</v>
+        <v>39540</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8796</v>
+        <v>0.3556</v>
       </c>
       <c r="G51" t="n">
-        <v>-694.0499498100004</v>
+        <v>-819.3759046100001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2452,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,22 +2470,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>39850</v>
+        <v>40450</v>
       </c>
       <c r="C52" t="n">
-        <v>39850</v>
+        <v>40460</v>
       </c>
       <c r="D52" t="n">
-        <v>39850</v>
+        <v>40460</v>
       </c>
       <c r="E52" t="n">
-        <v>39850</v>
+        <v>40440</v>
       </c>
       <c r="F52" t="n">
-        <v>1.7966</v>
+        <v>31.1772</v>
       </c>
       <c r="G52" t="n">
-        <v>-695.8465498100004</v>
+        <v>-788.1987046100002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2262,8 +2494,14 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2512,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>39850</v>
+        <v>40480</v>
       </c>
       <c r="C53" t="n">
-        <v>39560</v>
+        <v>40500</v>
       </c>
       <c r="D53" t="n">
-        <v>39870</v>
+        <v>40500</v>
       </c>
       <c r="E53" t="n">
-        <v>39560</v>
+        <v>40470</v>
       </c>
       <c r="F53" t="n">
-        <v>121.346</v>
+        <v>4.3741</v>
       </c>
       <c r="G53" t="n">
-        <v>-817.1925498100004</v>
+        <v>-783.8246046100002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2536,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2554,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>39820</v>
+        <v>40500</v>
       </c>
       <c r="C54" t="n">
-        <v>39820</v>
+        <v>40900</v>
       </c>
       <c r="D54" t="n">
-        <v>39820</v>
+        <v>40900</v>
       </c>
       <c r="E54" t="n">
-        <v>39820</v>
+        <v>40500</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0235</v>
+        <v>53.0311548</v>
       </c>
       <c r="G54" t="n">
-        <v>-817.1690498100004</v>
+        <v>-730.7934498100002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2578,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2596,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>39820</v>
+        <v>40910</v>
       </c>
       <c r="C55" t="n">
-        <v>40000</v>
+        <v>40110</v>
       </c>
       <c r="D55" t="n">
-        <v>40000</v>
+        <v>41010</v>
       </c>
       <c r="E55" t="n">
-        <v>39820</v>
+        <v>40110</v>
       </c>
       <c r="F55" t="n">
-        <v>31.9297</v>
+        <v>54.4343</v>
       </c>
       <c r="G55" t="n">
-        <v>-785.2393498100004</v>
+        <v>-785.2277498100002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2620,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,36 +2638,36 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>39860</v>
+        <v>40900</v>
       </c>
       <c r="C56" t="n">
-        <v>39870</v>
+        <v>40490</v>
       </c>
       <c r="D56" t="n">
-        <v>39870</v>
+        <v>41200</v>
       </c>
       <c r="E56" t="n">
-        <v>39860</v>
+        <v>40480</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>333.4164</v>
       </c>
       <c r="G56" t="n">
-        <v>-795.2393498100004</v>
+        <v>-451.8113498100002</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>40000</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>39490</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M56" t="n">
@@ -2424,33 +2680,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>39810</v>
+        <v>40440</v>
       </c>
       <c r="C57" t="n">
-        <v>39810</v>
+        <v>40490</v>
       </c>
       <c r="D57" t="n">
-        <v>39810</v>
+        <v>40490</v>
       </c>
       <c r="E57" t="n">
-        <v>39810</v>
+        <v>40440</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>6.6498</v>
       </c>
       <c r="G57" t="n">
-        <v>-805.2393498100004</v>
+        <v>-451.8113498100002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>39870</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>39490</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,33 +2722,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>39720</v>
+        <v>40490</v>
       </c>
       <c r="C58" t="n">
-        <v>39720</v>
+        <v>40210</v>
       </c>
       <c r="D58" t="n">
-        <v>39720</v>
+        <v>40500</v>
       </c>
       <c r="E58" t="n">
-        <v>39720</v>
+        <v>40210</v>
       </c>
       <c r="F58" t="n">
-        <v>0.98</v>
+        <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>-806.2193498100004</v>
+        <v>-457.8113498100002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>39810</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>39490</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2508,33 +2764,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>39640</v>
+        <v>40230</v>
       </c>
       <c r="C59" t="n">
-        <v>39630</v>
+        <v>40150</v>
       </c>
       <c r="D59" t="n">
-        <v>39640</v>
+        <v>40230</v>
       </c>
       <c r="E59" t="n">
-        <v>39630</v>
+        <v>40150</v>
       </c>
       <c r="F59" t="n">
-        <v>1.3323</v>
+        <v>285.8248</v>
       </c>
       <c r="G59" t="n">
-        <v>-807.5516498100004</v>
+        <v>-743.6361498100002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>39720</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>39490</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2550,22 +2806,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>39620</v>
+        <v>40080</v>
       </c>
       <c r="C60" t="n">
-        <v>39620</v>
+        <v>39900</v>
       </c>
       <c r="D60" t="n">
-        <v>39620</v>
+        <v>40080</v>
       </c>
       <c r="E60" t="n">
-        <v>39620</v>
+        <v>39900</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-817.5516498100004</v>
+        <v>-745.1361498100002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2574,7 +2830,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>39490</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2590,22 +2848,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>39610</v>
+        <v>39860</v>
       </c>
       <c r="C61" t="n">
-        <v>39610</v>
+        <v>39800</v>
       </c>
       <c r="D61" t="n">
-        <v>39620</v>
+        <v>39860</v>
       </c>
       <c r="E61" t="n">
-        <v>39610</v>
+        <v>39800</v>
       </c>
       <c r="F61" t="n">
-        <v>105.3818</v>
+        <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>-922.9334498100004</v>
+        <v>-745.6361498100002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2614,7 +2872,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>39490</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2630,22 +2890,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>39610</v>
+        <v>40050</v>
       </c>
       <c r="C62" t="n">
-        <v>39460</v>
+        <v>40050</v>
       </c>
       <c r="D62" t="n">
-        <v>39610</v>
+        <v>40050</v>
       </c>
       <c r="E62" t="n">
-        <v>39460</v>
+        <v>40050</v>
       </c>
       <c r="F62" t="n">
-        <v>2.6941</v>
+        <v>3.6487</v>
       </c>
       <c r="G62" t="n">
-        <v>-925.6275498100005</v>
+        <v>-741.9874498100003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2654,7 +2914,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>39490</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2670,22 +2932,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>39460</v>
+        <v>40420</v>
       </c>
       <c r="C63" t="n">
-        <v>39460</v>
+        <v>41100</v>
       </c>
       <c r="D63" t="n">
-        <v>39460</v>
+        <v>41100</v>
       </c>
       <c r="E63" t="n">
-        <v>39460</v>
+        <v>40420</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>299.7352</v>
       </c>
       <c r="G63" t="n">
-        <v>-925.6275498100005</v>
+        <v>-442.2522498100003</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2694,7 +2956,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>39490</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2710,22 +2974,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>39620</v>
+        <v>41100</v>
       </c>
       <c r="C64" t="n">
-        <v>39620</v>
+        <v>40900</v>
       </c>
       <c r="D64" t="n">
-        <v>39620</v>
+        <v>41100</v>
       </c>
       <c r="E64" t="n">
-        <v>39620</v>
+        <v>40900</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8833</v>
+        <v>41.202</v>
       </c>
       <c r="G64" t="n">
-        <v>-924.7442498100005</v>
+        <v>-483.4542498100002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2734,7 +2998,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>39490</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,33 +3016,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>39620</v>
+        <v>40900</v>
       </c>
       <c r="C65" t="n">
-        <v>39620</v>
+        <v>40620</v>
       </c>
       <c r="D65" t="n">
-        <v>39620</v>
+        <v>40900</v>
       </c>
       <c r="E65" t="n">
-        <v>39620</v>
+        <v>40620</v>
       </c>
       <c r="F65" t="n">
-        <v>7.553</v>
+        <v>70</v>
       </c>
       <c r="G65" t="n">
-        <v>-924.7442498100005</v>
+        <v>-553.4542498100002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>39620</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>39490</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,22 +3058,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39620</v>
+        <v>41040</v>
       </c>
       <c r="C66" t="n">
-        <v>39620</v>
+        <v>41040</v>
       </c>
       <c r="D66" t="n">
-        <v>39620</v>
+        <v>41040</v>
       </c>
       <c r="E66" t="n">
-        <v>39620</v>
+        <v>41040</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1932</v>
+        <v>0.03</v>
       </c>
       <c r="G66" t="n">
-        <v>-924.7442498100005</v>
+        <v>-553.4242498100002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2816,7 +3082,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>39490</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,33 +3100,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>39620</v>
+        <v>40600</v>
       </c>
       <c r="C67" t="n">
-        <v>39620</v>
+        <v>40590</v>
       </c>
       <c r="D67" t="n">
-        <v>39620</v>
+        <v>40600</v>
       </c>
       <c r="E67" t="n">
-        <v>39620</v>
+        <v>40590</v>
       </c>
       <c r="F67" t="n">
-        <v>1.163</v>
+        <v>7.8686</v>
       </c>
       <c r="G67" t="n">
-        <v>-924.7442498100005</v>
+        <v>-561.2928498100002</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>39620</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>39490</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2874,33 +3142,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>39620</v>
+        <v>40590</v>
       </c>
       <c r="C68" t="n">
-        <v>39620</v>
+        <v>40470</v>
       </c>
       <c r="D68" t="n">
-        <v>39620</v>
+        <v>40590</v>
       </c>
       <c r="E68" t="n">
-        <v>39620</v>
+        <v>40470</v>
       </c>
       <c r="F68" t="n">
-        <v>2.5</v>
+        <v>1.5403</v>
       </c>
       <c r="G68" t="n">
-        <v>-924.7442498100005</v>
+        <v>-562.8331498100002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>39620</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>39490</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2916,22 +3184,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>39620</v>
+        <v>40470</v>
       </c>
       <c r="C69" t="n">
-        <v>39620</v>
+        <v>40000</v>
       </c>
       <c r="D69" t="n">
-        <v>39620</v>
+        <v>40470</v>
       </c>
       <c r="E69" t="n">
-        <v>39620</v>
+        <v>40000</v>
       </c>
       <c r="F69" t="n">
-        <v>2.7593</v>
+        <v>100.3256</v>
       </c>
       <c r="G69" t="n">
-        <v>-924.7442498100005</v>
+        <v>-663.1587498100002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2940,7 +3208,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>39490</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,22 +3226,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>39620</v>
+        <v>39850</v>
       </c>
       <c r="C70" t="n">
-        <v>39630</v>
+        <v>39850</v>
       </c>
       <c r="D70" t="n">
-        <v>39630</v>
+        <v>39850</v>
       </c>
       <c r="E70" t="n">
-        <v>39620</v>
+        <v>39850</v>
       </c>
       <c r="F70" t="n">
-        <v>10.0843</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>-914.6599498100005</v>
+        <v>-669.1587498100002</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2980,7 +3250,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>39490</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2996,22 +3268,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>39640</v>
+        <v>39850</v>
       </c>
       <c r="C71" t="n">
-        <v>39650</v>
+        <v>39850</v>
       </c>
       <c r="D71" t="n">
-        <v>39650</v>
+        <v>39850</v>
       </c>
       <c r="E71" t="n">
-        <v>39630</v>
+        <v>39850</v>
       </c>
       <c r="F71" t="n">
-        <v>44.5906</v>
+        <v>3.6854</v>
       </c>
       <c r="G71" t="n">
-        <v>-870.0693498100005</v>
+        <v>-669.1587498100002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3020,7 +3292,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>39490</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,22 +3310,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>39650</v>
+        <v>39850</v>
       </c>
       <c r="C72" t="n">
-        <v>39650</v>
+        <v>39850</v>
       </c>
       <c r="D72" t="n">
-        <v>39650</v>
+        <v>39850</v>
       </c>
       <c r="E72" t="n">
-        <v>39650</v>
+        <v>39850</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>26.4751</v>
       </c>
       <c r="G72" t="n">
-        <v>-870.0693498100005</v>
+        <v>-669.1587498100002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3060,7 +3334,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>39490</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3076,22 +3352,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>39650</v>
+        <v>39860</v>
       </c>
       <c r="C73" t="n">
-        <v>40080</v>
+        <v>39860</v>
       </c>
       <c r="D73" t="n">
-        <v>40080</v>
+        <v>39860</v>
       </c>
       <c r="E73" t="n">
-        <v>39650</v>
+        <v>39860</v>
       </c>
       <c r="F73" t="n">
-        <v>19.4337</v>
+        <v>0.8864</v>
       </c>
       <c r="G73" t="n">
-        <v>-850.6356498100005</v>
+        <v>-668.2723498100003</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3100,7 +3376,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>39490</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,22 +3394,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39510</v>
+        <v>40340</v>
       </c>
       <c r="C74" t="n">
-        <v>39530</v>
+        <v>40340</v>
       </c>
       <c r="D74" t="n">
-        <v>39590</v>
+        <v>40340</v>
       </c>
       <c r="E74" t="n">
-        <v>39490</v>
+        <v>40340</v>
       </c>
       <c r="F74" t="n">
-        <v>110.99</v>
+        <v>0.2509</v>
       </c>
       <c r="G74" t="n">
-        <v>-961.6256498100005</v>
+        <v>-668.0214498100003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3140,7 +3418,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>39490</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3156,22 +3436,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>40080</v>
+        <v>40340</v>
       </c>
       <c r="C75" t="n">
-        <v>40130</v>
+        <v>40340</v>
       </c>
       <c r="D75" t="n">
-        <v>40130</v>
+        <v>40340</v>
       </c>
       <c r="E75" t="n">
-        <v>40080</v>
+        <v>40340</v>
       </c>
       <c r="F75" t="n">
-        <v>29.3</v>
+        <v>0.8475</v>
       </c>
       <c r="G75" t="n">
-        <v>-932.3256498100005</v>
+        <v>-668.0214498100003</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3180,7 +3460,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>39490</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,22 +3478,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>39800</v>
+        <v>40340</v>
       </c>
       <c r="C76" t="n">
-        <v>39800</v>
+        <v>40340</v>
       </c>
       <c r="D76" t="n">
-        <v>39800</v>
+        <v>40340</v>
       </c>
       <c r="E76" t="n">
-        <v>39800</v>
+        <v>40340</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>0.176</v>
       </c>
       <c r="G76" t="n">
-        <v>-942.3256498100005</v>
+        <v>-668.0214498100003</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3220,7 +3502,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>39490</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3236,22 +3520,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>39880</v>
+        <v>39940</v>
       </c>
       <c r="C77" t="n">
-        <v>39770</v>
+        <v>39940</v>
       </c>
       <c r="D77" t="n">
-        <v>39890</v>
+        <v>39940</v>
       </c>
       <c r="E77" t="n">
-        <v>39770</v>
+        <v>39940</v>
       </c>
       <c r="F77" t="n">
-        <v>25.7591</v>
+        <v>0.1386</v>
       </c>
       <c r="G77" t="n">
-        <v>-968.0847498100005</v>
+        <v>-668.1600498100003</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3260,7 +3544,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>39490</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3276,22 +3562,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>40000</v>
+        <v>39950</v>
       </c>
       <c r="C78" t="n">
-        <v>40030</v>
+        <v>39970</v>
       </c>
       <c r="D78" t="n">
-        <v>40040</v>
+        <v>39970</v>
       </c>
       <c r="E78" t="n">
-        <v>39960</v>
+        <v>39950</v>
       </c>
       <c r="F78" t="n">
-        <v>81.90000000000001</v>
+        <v>3.8562</v>
       </c>
       <c r="G78" t="n">
-        <v>-886.1847498100005</v>
+        <v>-664.3038498100003</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3300,7 +3586,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>39490</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,22 +3604,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>39740</v>
+        <v>39960</v>
       </c>
       <c r="C79" t="n">
-        <v>39730</v>
+        <v>39860</v>
       </c>
       <c r="D79" t="n">
-        <v>39740</v>
+        <v>39960</v>
       </c>
       <c r="E79" t="n">
-        <v>39730</v>
+        <v>39860</v>
       </c>
       <c r="F79" t="n">
-        <v>7.7462</v>
+        <v>30.6257</v>
       </c>
       <c r="G79" t="n">
-        <v>-893.9309498100006</v>
+        <v>-694.9295498100004</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3340,7 +3628,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>39490</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,22 +3646,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>39740</v>
+        <v>39870</v>
       </c>
       <c r="C80" t="n">
-        <v>39970</v>
+        <v>39870</v>
       </c>
       <c r="D80" t="n">
-        <v>39970</v>
+        <v>39870</v>
       </c>
       <c r="E80" t="n">
-        <v>39740</v>
+        <v>39870</v>
       </c>
       <c r="F80" t="n">
-        <v>2.3127</v>
+        <v>0.8796</v>
       </c>
       <c r="G80" t="n">
-        <v>-891.6182498100006</v>
+        <v>-694.0499498100004</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3380,7 +3670,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>39490</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,22 +3688,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>40190</v>
+        <v>39850</v>
       </c>
       <c r="C81" t="n">
-        <v>40210</v>
+        <v>39850</v>
       </c>
       <c r="D81" t="n">
-        <v>40210</v>
+        <v>39850</v>
       </c>
       <c r="E81" t="n">
-        <v>40190</v>
+        <v>39850</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>1.7966</v>
       </c>
       <c r="G81" t="n">
-        <v>-879.6182498100006</v>
+        <v>-695.8465498100004</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3420,7 +3712,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>39490</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3436,22 +3730,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>40200</v>
+        <v>39850</v>
       </c>
       <c r="C82" t="n">
-        <v>39750</v>
+        <v>39560</v>
       </c>
       <c r="D82" t="n">
-        <v>40200</v>
+        <v>39870</v>
       </c>
       <c r="E82" t="n">
-        <v>39740</v>
+        <v>39560</v>
       </c>
       <c r="F82" t="n">
-        <v>23.31</v>
+        <v>121.346</v>
       </c>
       <c r="G82" t="n">
-        <v>-902.9282498100006</v>
+        <v>-817.1925498100004</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3460,7 +3754,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>39490</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3476,22 +3772,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>40190</v>
+        <v>39820</v>
       </c>
       <c r="C83" t="n">
-        <v>39760</v>
+        <v>39820</v>
       </c>
       <c r="D83" t="n">
-        <v>40190</v>
+        <v>39820</v>
       </c>
       <c r="E83" t="n">
-        <v>39760</v>
+        <v>39820</v>
       </c>
       <c r="F83" t="n">
-        <v>27.6194</v>
+        <v>0.0235</v>
       </c>
       <c r="G83" t="n">
-        <v>-875.3088498100005</v>
+        <v>-817.1690498100004</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3500,7 +3796,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>39490</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,22 +3814,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>40160</v>
+        <v>39820</v>
       </c>
       <c r="C84" t="n">
-        <v>39740</v>
+        <v>40000</v>
       </c>
       <c r="D84" t="n">
-        <v>40190</v>
+        <v>40000</v>
       </c>
       <c r="E84" t="n">
-        <v>39740</v>
+        <v>39820</v>
       </c>
       <c r="F84" t="n">
-        <v>58.3817</v>
+        <v>31.9297</v>
       </c>
       <c r="G84" t="n">
-        <v>-933.6905498100006</v>
+        <v>-785.2393498100004</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3540,7 +3838,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>39490</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3556,22 +3856,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>40040</v>
+        <v>39860</v>
       </c>
       <c r="C85" t="n">
-        <v>39750</v>
+        <v>39870</v>
       </c>
       <c r="D85" t="n">
-        <v>40190</v>
+        <v>39870</v>
       </c>
       <c r="E85" t="n">
-        <v>39750</v>
+        <v>39860</v>
       </c>
       <c r="F85" t="n">
-        <v>14.1413</v>
+        <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-919.5492498100006</v>
+        <v>-795.2393498100004</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3580,7 +3880,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>39490</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3596,22 +3898,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>40170</v>
+        <v>39810</v>
       </c>
       <c r="C86" t="n">
-        <v>39800</v>
+        <v>39810</v>
       </c>
       <c r="D86" t="n">
-        <v>40170</v>
+        <v>39810</v>
       </c>
       <c r="E86" t="n">
-        <v>39800</v>
+        <v>39810</v>
       </c>
       <c r="F86" t="n">
-        <v>2.06</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-917.4892498100006</v>
+        <v>-805.2393498100004</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3620,7 +3922,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>39490</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3636,22 +3940,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>39800</v>
+        <v>39720</v>
       </c>
       <c r="C87" t="n">
-        <v>39800</v>
+        <v>39720</v>
       </c>
       <c r="D87" t="n">
-        <v>39800</v>
+        <v>39720</v>
       </c>
       <c r="E87" t="n">
-        <v>39800</v>
+        <v>39720</v>
       </c>
       <c r="F87" t="n">
-        <v>60.9367</v>
+        <v>0.98</v>
       </c>
       <c r="G87" t="n">
-        <v>-917.4892498100006</v>
+        <v>-806.2193498100004</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3660,7 +3964,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>39490</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3676,22 +3982,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>39800</v>
+        <v>39640</v>
       </c>
       <c r="C88" t="n">
-        <v>39800</v>
+        <v>39630</v>
       </c>
       <c r="D88" t="n">
-        <v>39800</v>
+        <v>39640</v>
       </c>
       <c r="E88" t="n">
-        <v>39800</v>
+        <v>39630</v>
       </c>
       <c r="F88" t="n">
-        <v>8.679399999999999</v>
+        <v>1.3323</v>
       </c>
       <c r="G88" t="n">
-        <v>-917.4892498100006</v>
+        <v>-807.5516498100004</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3700,7 +4006,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>39490</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3716,22 +4024,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="C89" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="D89" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="E89" t="n">
-        <v>39760</v>
+        <v>39620</v>
       </c>
       <c r="F89" t="n">
-        <v>31.1423</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-917.4892498100006</v>
+        <v>-817.5516498100004</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3740,7 +4048,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>39490</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,22 +4066,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>39800</v>
+        <v>39610</v>
       </c>
       <c r="C90" t="n">
-        <v>39800</v>
+        <v>39610</v>
       </c>
       <c r="D90" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="E90" t="n">
-        <v>39800</v>
+        <v>39610</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9987</v>
+        <v>105.3818</v>
       </c>
       <c r="G90" t="n">
-        <v>-917.4892498100006</v>
+        <v>-922.9334498100004</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3780,7 +4090,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>39490</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,22 +4108,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>39800</v>
+        <v>39610</v>
       </c>
       <c r="C91" t="n">
-        <v>39800</v>
+        <v>39460</v>
       </c>
       <c r="D91" t="n">
-        <v>39800</v>
+        <v>39610</v>
       </c>
       <c r="E91" t="n">
-        <v>39800</v>
+        <v>39460</v>
       </c>
       <c r="F91" t="n">
-        <v>19.1588</v>
+        <v>2.6941</v>
       </c>
       <c r="G91" t="n">
-        <v>-917.4892498100006</v>
+        <v>-925.6275498100005</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3820,7 +4132,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>39490</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3836,22 +4150,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>39800</v>
+        <v>39460</v>
       </c>
       <c r="C92" t="n">
-        <v>39800</v>
+        <v>39460</v>
       </c>
       <c r="D92" t="n">
-        <v>39800</v>
+        <v>39460</v>
       </c>
       <c r="E92" t="n">
-        <v>39800</v>
+        <v>39460</v>
       </c>
       <c r="F92" t="n">
-        <v>53.5003</v>
+        <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>-917.4892498100006</v>
+        <v>-925.6275498100005</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3860,7 +4174,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>39490</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,22 +4192,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="C93" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="D93" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="E93" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="F93" t="n">
-        <v>10.1348</v>
+        <v>0.8833</v>
       </c>
       <c r="G93" t="n">
-        <v>-917.4892498100006</v>
+        <v>-924.7442498100005</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3900,7 +4216,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>39490</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3916,22 +4234,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="C94" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="D94" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="E94" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="F94" t="n">
-        <v>19.9937</v>
+        <v>7.553</v>
       </c>
       <c r="G94" t="n">
-        <v>-917.4892498100006</v>
+        <v>-924.7442498100005</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3940,7 +4258,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>39490</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,22 +4276,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="C95" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="D95" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="E95" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5336</v>
+        <v>0.1932</v>
       </c>
       <c r="G95" t="n">
-        <v>-917.4892498100006</v>
+        <v>-924.7442498100005</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3980,7 +4300,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>39490</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3996,31 +4318,35 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>39810</v>
+        <v>39620</v>
       </c>
       <c r="C96" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="D96" t="n">
-        <v>39810</v>
+        <v>39620</v>
       </c>
       <c r="E96" t="n">
-        <v>39800</v>
+        <v>39620</v>
       </c>
       <c r="F96" t="n">
-        <v>23.758</v>
+        <v>1.163</v>
       </c>
       <c r="G96" t="n">
-        <v>-917.4892498100006</v>
+        <v>-924.7442498100005</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>39620</v>
+      </c>
+      <c r="K96" t="n">
+        <v>39490</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,31 +4362,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>39950</v>
+        <v>39620</v>
       </c>
       <c r="C97" t="n">
-        <v>39950</v>
+        <v>39620</v>
       </c>
       <c r="D97" t="n">
-        <v>39950</v>
+        <v>39620</v>
       </c>
       <c r="E97" t="n">
-        <v>39950</v>
+        <v>39620</v>
       </c>
       <c r="F97" t="n">
-        <v>0.02</v>
+        <v>2.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-917.4692498100006</v>
+        <v>-924.7442498100005</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>39620</v>
+      </c>
+      <c r="K97" t="n">
+        <v>39490</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4076,31 +4406,35 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>40010</v>
+        <v>39620</v>
       </c>
       <c r="C98" t="n">
-        <v>40010</v>
+        <v>39620</v>
       </c>
       <c r="D98" t="n">
-        <v>40010</v>
+        <v>39620</v>
       </c>
       <c r="E98" t="n">
-        <v>40010</v>
+        <v>39620</v>
       </c>
       <c r="F98" t="n">
-        <v>3.7</v>
+        <v>2.7593</v>
       </c>
       <c r="G98" t="n">
-        <v>-913.7692498100006</v>
+        <v>-924.7442498100005</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>39620</v>
+      </c>
+      <c r="K98" t="n">
+        <v>39490</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4116,31 +4450,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>39930</v>
+        <v>39620</v>
       </c>
       <c r="C99" t="n">
-        <v>40330</v>
+        <v>39630</v>
       </c>
       <c r="D99" t="n">
-        <v>41010</v>
+        <v>39630</v>
       </c>
       <c r="E99" t="n">
-        <v>39820</v>
+        <v>39620</v>
       </c>
       <c r="F99" t="n">
-        <v>425.6893</v>
+        <v>10.0843</v>
       </c>
       <c r="G99" t="n">
-        <v>-488.0799498100006</v>
+        <v>-914.6599498100005</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>39620</v>
+      </c>
+      <c r="K99" t="n">
+        <v>39490</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,72 +4494,84 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>40150</v>
+        <v>39640</v>
       </c>
       <c r="C100" t="n">
-        <v>40130</v>
+        <v>39650</v>
       </c>
       <c r="D100" t="n">
-        <v>40150</v>
+        <v>39650</v>
       </c>
       <c r="E100" t="n">
-        <v>40130</v>
+        <v>39630</v>
       </c>
       <c r="F100" t="n">
-        <v>1.3018</v>
+        <v>44.5906</v>
       </c>
       <c r="G100" t="n">
-        <v>-489.3817498100006</v>
+        <v>-870.0693498100005</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>39630</v>
+      </c>
+      <c r="K100" t="n">
+        <v>39490</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
-        <v>1.053439018153925</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>40060</v>
+        <v>39650</v>
       </c>
       <c r="C101" t="n">
-        <v>40060</v>
+        <v>39650</v>
       </c>
       <c r="D101" t="n">
-        <v>40060</v>
+        <v>39650</v>
       </c>
       <c r="E101" t="n">
-        <v>40060</v>
+        <v>39650</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2017</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-489.5834498100006</v>
+        <v>-870.0693498100005</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>39650</v>
+      </c>
+      <c r="K101" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4232,32 +4582,40 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>40070</v>
+        <v>39650</v>
       </c>
       <c r="C102" t="n">
-        <v>39880</v>
+        <v>40080</v>
       </c>
       <c r="D102" t="n">
-        <v>40070</v>
+        <v>40080</v>
       </c>
       <c r="E102" t="n">
-        <v>39840</v>
+        <v>39650</v>
       </c>
       <c r="F102" t="n">
-        <v>28.2297</v>
+        <v>19.4337</v>
       </c>
       <c r="G102" t="n">
-        <v>-517.8131498100006</v>
+        <v>-850.6356498100005</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>39650</v>
+      </c>
+      <c r="K102" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4268,22 +4626,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>39910</v>
+        <v>39510</v>
       </c>
       <c r="C103" t="n">
-        <v>39920</v>
+        <v>39530</v>
       </c>
       <c r="D103" t="n">
-        <v>39920</v>
+        <v>39590</v>
       </c>
       <c r="E103" t="n">
-        <v>39910</v>
+        <v>39490</v>
       </c>
       <c r="F103" t="n">
-        <v>5.4134</v>
+        <v>110.99</v>
       </c>
       <c r="G103" t="n">
-        <v>-512.3997498100006</v>
+        <v>-961.6256498100005</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4292,8 +4650,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4304,22 +4668,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>40100</v>
+        <v>40080</v>
       </c>
       <c r="C104" t="n">
-        <v>40100</v>
+        <v>40130</v>
       </c>
       <c r="D104" t="n">
-        <v>40100</v>
+        <v>40130</v>
       </c>
       <c r="E104" t="n">
-        <v>40100</v>
+        <v>40080</v>
       </c>
       <c r="F104" t="n">
-        <v>0.02</v>
+        <v>29.3</v>
       </c>
       <c r="G104" t="n">
-        <v>-512.3797498100006</v>
+        <v>-932.3256498100005</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4328,8 +4692,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4710,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>40060</v>
+        <v>39800</v>
       </c>
       <c r="C105" t="n">
-        <v>40060</v>
+        <v>39800</v>
       </c>
       <c r="D105" t="n">
-        <v>40060</v>
+        <v>39800</v>
       </c>
       <c r="E105" t="n">
-        <v>40060</v>
+        <v>39800</v>
       </c>
       <c r="F105" t="n">
-        <v>0.03245132</v>
+        <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-512.4122011300005</v>
+        <v>-942.3256498100005</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4364,8 +4734,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4379,19 +4755,19 @@
         <v>39880</v>
       </c>
       <c r="C106" t="n">
-        <v>39870</v>
+        <v>39770</v>
       </c>
       <c r="D106" t="n">
         <v>39890</v>
       </c>
       <c r="E106" t="n">
-        <v>39870</v>
+        <v>39770</v>
       </c>
       <c r="F106" t="n">
-        <v>4.5324</v>
+        <v>25.7591</v>
       </c>
       <c r="G106" t="n">
-        <v>-516.9446011300006</v>
+        <v>-968.0847498100005</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4400,8 +4776,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4412,22 +4794,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>39870</v>
+        <v>40000</v>
       </c>
       <c r="C107" t="n">
-        <v>39830</v>
+        <v>40030</v>
       </c>
       <c r="D107" t="n">
-        <v>39890</v>
+        <v>40040</v>
       </c>
       <c r="E107" t="n">
-        <v>39820</v>
+        <v>39960</v>
       </c>
       <c r="F107" t="n">
-        <v>9.1</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-526.0446011300006</v>
+        <v>-886.1847498100005</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4436,8 +4818,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4448,22 +4836,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>39830</v>
+        <v>39740</v>
       </c>
       <c r="C108" t="n">
-        <v>39830</v>
+        <v>39730</v>
       </c>
       <c r="D108" t="n">
-        <v>39830</v>
+        <v>39740</v>
       </c>
       <c r="E108" t="n">
-        <v>39830</v>
+        <v>39730</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>7.7462</v>
       </c>
       <c r="G108" t="n">
-        <v>-526.0446011300006</v>
+        <v>-893.9309498100006</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4472,8 +4860,14 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4484,36 +4878,1260 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>39740</v>
+      </c>
+      <c r="C109" t="n">
+        <v>39970</v>
+      </c>
+      <c r="D109" t="n">
+        <v>39970</v>
+      </c>
+      <c r="E109" t="n">
+        <v>39740</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2.3127</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-891.6182498100006</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>40190</v>
+      </c>
+      <c r="C110" t="n">
+        <v>40210</v>
+      </c>
+      <c r="D110" t="n">
+        <v>40210</v>
+      </c>
+      <c r="E110" t="n">
+        <v>40190</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-879.6182498100006</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>40200</v>
+      </c>
+      <c r="C111" t="n">
+        <v>39750</v>
+      </c>
+      <c r="D111" t="n">
+        <v>40200</v>
+      </c>
+      <c r="E111" t="n">
+        <v>39740</v>
+      </c>
+      <c r="F111" t="n">
+        <v>23.31</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-902.9282498100006</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>40190</v>
+      </c>
+      <c r="C112" t="n">
+        <v>39760</v>
+      </c>
+      <c r="D112" t="n">
+        <v>40190</v>
+      </c>
+      <c r="E112" t="n">
+        <v>39760</v>
+      </c>
+      <c r="F112" t="n">
+        <v>27.6194</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-875.3088498100005</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>40160</v>
+      </c>
+      <c r="C113" t="n">
+        <v>39740</v>
+      </c>
+      <c r="D113" t="n">
+        <v>40190</v>
+      </c>
+      <c r="E113" t="n">
+        <v>39740</v>
+      </c>
+      <c r="F113" t="n">
+        <v>58.3817</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-933.6905498100006</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>40040</v>
+      </c>
+      <c r="C114" t="n">
+        <v>39750</v>
+      </c>
+      <c r="D114" t="n">
+        <v>40190</v>
+      </c>
+      <c r="E114" t="n">
+        <v>39750</v>
+      </c>
+      <c r="F114" t="n">
+        <v>14.1413</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-919.5492498100006</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>40170</v>
+      </c>
+      <c r="C115" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D115" t="n">
+        <v>40170</v>
+      </c>
+      <c r="E115" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C116" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D116" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E116" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F116" t="n">
+        <v>60.9367</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C117" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D117" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E117" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F117" t="n">
+        <v>8.679399999999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C118" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D118" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E118" t="n">
+        <v>39760</v>
+      </c>
+      <c r="F118" t="n">
+        <v>31.1423</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C119" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D119" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C120" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D120" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E120" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F120" t="n">
+        <v>19.1588</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C121" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D121" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E121" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F121" t="n">
+        <v>53.5003</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C122" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D122" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E122" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F122" t="n">
+        <v>10.1348</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C123" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D123" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E123" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F123" t="n">
+        <v>19.9937</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>39800</v>
+      </c>
+      <c r="C124" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D124" t="n">
+        <v>39800</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.5336</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>39810</v>
+      </c>
+      <c r="C125" t="n">
+        <v>39800</v>
+      </c>
+      <c r="D125" t="n">
+        <v>39810</v>
+      </c>
+      <c r="E125" t="n">
+        <v>39800</v>
+      </c>
+      <c r="F125" t="n">
+        <v>23.758</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-917.4892498100006</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>39950</v>
+      </c>
+      <c r="C126" t="n">
+        <v>39950</v>
+      </c>
+      <c r="D126" t="n">
+        <v>39950</v>
+      </c>
+      <c r="E126" t="n">
+        <v>39950</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-917.4692498100006</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>40010</v>
+      </c>
+      <c r="C127" t="n">
+        <v>40010</v>
+      </c>
+      <c r="D127" t="n">
+        <v>40010</v>
+      </c>
+      <c r="E127" t="n">
+        <v>40010</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-913.7692498100006</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>39930</v>
+      </c>
+      <c r="C128" t="n">
+        <v>40330</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41010</v>
+      </c>
+      <c r="E128" t="n">
+        <v>39820</v>
+      </c>
+      <c r="F128" t="n">
+        <v>425.6893</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-488.0799498100006</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>40150</v>
+      </c>
+      <c r="C129" t="n">
+        <v>40130</v>
+      </c>
+      <c r="D129" t="n">
+        <v>40150</v>
+      </c>
+      <c r="E129" t="n">
+        <v>40130</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.3018</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-489.3817498100006</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>40060</v>
+      </c>
+      <c r="C130" t="n">
+        <v>40060</v>
+      </c>
+      <c r="D130" t="n">
+        <v>40060</v>
+      </c>
+      <c r="E130" t="n">
+        <v>40060</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-489.5834498100006</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>40070</v>
+      </c>
+      <c r="C131" t="n">
+        <v>39880</v>
+      </c>
+      <c r="D131" t="n">
+        <v>40070</v>
+      </c>
+      <c r="E131" t="n">
+        <v>39840</v>
+      </c>
+      <c r="F131" t="n">
+        <v>28.2297</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-517.8131498100006</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>39910</v>
+      </c>
+      <c r="C132" t="n">
+        <v>39920</v>
+      </c>
+      <c r="D132" t="n">
+        <v>39920</v>
+      </c>
+      <c r="E132" t="n">
+        <v>39910</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5.4134</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-512.3997498100006</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>40100</v>
+      </c>
+      <c r="C133" t="n">
+        <v>40100</v>
+      </c>
+      <c r="D133" t="n">
+        <v>40100</v>
+      </c>
+      <c r="E133" t="n">
+        <v>40100</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-512.3797498100006</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>40060</v>
+      </c>
+      <c r="C134" t="n">
+        <v>40060</v>
+      </c>
+      <c r="D134" t="n">
+        <v>40060</v>
+      </c>
+      <c r="E134" t="n">
+        <v>40060</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.03245132</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-512.4122011300005</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>39880</v>
+      </c>
+      <c r="C135" t="n">
+        <v>39870</v>
+      </c>
+      <c r="D135" t="n">
+        <v>39890</v>
+      </c>
+      <c r="E135" t="n">
+        <v>39870</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4.5324</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-516.9446011300006</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>39870</v>
+      </c>
+      <c r="C136" t="n">
         <v>39830</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D136" t="n">
+        <v>39890</v>
+      </c>
+      <c r="E136" t="n">
+        <v>39820</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-526.0446011300006</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>39830</v>
+      </c>
+      <c r="C137" t="n">
+        <v>39830</v>
+      </c>
+      <c r="D137" t="n">
+        <v>39830</v>
+      </c>
+      <c r="E137" t="n">
+        <v>39830</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-526.0446011300006</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>39830</v>
+      </c>
+      <c r="C138" t="n">
         <v>39800</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D138" t="n">
         <v>39830</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E138" t="n">
         <v>39800</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F138" t="n">
         <v>2</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G138" t="n">
         <v>-528.0446011300006</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>39490</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-13 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-13 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-383.4957046100002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-384.3339046100002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-420.1240046100002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-420.1240046100002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-420.5240046100001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-422.6361046100001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-422.6361046100001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-423.0453046100001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-466.0894046100001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-567.6585046100001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-567.6585046100001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-566.7389046100002</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-568.8059046100002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-560.2989046100001</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-559.1863046100001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -2002,10 +2002,14 @@
         <v>-806.4761046100001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>39390</v>
+      </c>
+      <c r="J49" t="n">
+        <v>39390</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2035,11 +2039,19 @@
         <v>-819.0203046100002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>39680</v>
+      </c>
+      <c r="J50" t="n">
+        <v>39390</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2080,19 @@
         <v>-819.3759046100001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>39560</v>
+      </c>
+      <c r="J51" t="n">
+        <v>39390</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,10 +2121,14 @@
         <v>-788.1987046100002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>39540</v>
+      </c>
+      <c r="J52" t="n">
+        <v>39540</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
@@ -2137,8 +2161,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>39540</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2200,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>39540</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2332,7 +2368,7 @@
         <v>-743.6361498100002</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2464,7 +2500,7 @@
         <v>-442.2522498100003</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2596,7 +2632,7 @@
         <v>-561.2928498100002</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2662,7 +2698,7 @@
         <v>-663.1587498100002</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3157,11 +3193,17 @@
         <v>-785.2393498100004</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>39820</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3236,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3273,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3310,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3347,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3380,17 @@
         <v>-817.5516498100004</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>39630</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3423,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3460,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3493,17 @@
         <v>-925.6275498100005</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>39460</v>
+      </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3532,17 @@
         <v>-924.7442498100005</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>39460</v>
+      </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3575,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3612,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3649,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3686,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +3723,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +3760,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3685,15 +3793,13 @@
         <v>-870.0693498100005</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>39630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L100" t="n">
@@ -4464,9 +4570,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>39800</v>
+      </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
@@ -4501,9 +4609,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>39800</v>
+      </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
@@ -4538,9 +4648,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>39800</v>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
@@ -4575,9 +4687,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>39800</v>
+      </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
@@ -4612,9 +4726,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>39800</v>
+      </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
@@ -4649,9 +4765,11 @@
         <v>-917.4692498100006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>39800</v>
+      </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4686,9 +4804,11 @@
         <v>-913.7692498100006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>39950</v>
+      </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5019,7 +5139,7 @@
         <v>-526.0446011300006</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>39870</v>
@@ -5058,7 +5178,7 @@
         <v>-526.0446011300006</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>39830</v>
@@ -5097,11 +5217,9 @@
         <v>-528.0446011300006</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>39830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5114,6 +5232,6 @@
       <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-13 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-383.4957046100002</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-384.3339046100002</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-420.1240046100002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-420.1240046100002</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-420.5240046100001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-422.6361046100001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-422.6361046100001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-423.0453046100001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-567.6585046100001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-567.6585046100001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-566.7389046100002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1540,10 +1540,14 @@
         <v>-739.0304046100001</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>39260</v>
+      </c>
+      <c r="J35" t="n">
+        <v>39260</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1573,11 +1577,19 @@
         <v>-729.3103046100001</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>39260</v>
+      </c>
+      <c r="J36" t="n">
+        <v>39260</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1621,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>39260</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1690,17 @@
         <v>-737.1039046100001</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>39490</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1729,17 @@
         <v>-737.0739046100001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>39470</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1772,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1809,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1846,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1883,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1920,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1957,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1994,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2031,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,15 +2064,15 @@
         <v>-806.4761046100001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>39390</v>
-      </c>
-      <c r="J49" t="n">
-        <v>39390</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,17 +2101,13 @@
         <v>-819.0203046100002</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>39680</v>
-      </c>
-      <c r="J50" t="n">
-        <v>39390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -2080,17 +2138,13 @@
         <v>-819.3759046100001</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>39560</v>
-      </c>
-      <c r="J51" t="n">
-        <v>39390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2121,15 +2175,15 @@
         <v>-788.1987046100002</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>39540</v>
-      </c>
-      <c r="J52" t="n">
-        <v>39540</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2161,12 +2215,10 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>39540</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2200,12 +2252,10 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>39540</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2240,7 +2290,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2273,7 +2327,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2306,7 +2364,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2339,7 +2401,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2372,7 +2438,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2405,7 +2475,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2438,7 +2512,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2471,7 +2549,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2504,7 +2586,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2537,7 +2623,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2570,7 +2660,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2603,7 +2697,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2636,7 +2734,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2669,7 +2771,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2702,7 +2808,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2735,7 +2845,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2768,7 +2882,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2801,7 +2919,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2834,7 +2956,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2867,7 +2993,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2900,7 +3030,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2933,7 +3067,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2966,7 +3104,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2999,7 +3141,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3032,7 +3178,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +3211,16 @@
         <v>-694.0499498100004</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3127,7 +3279,7 @@
         <v>-817.1925498100004</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3193,17 +3345,11 @@
         <v>-785.2393498100004</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>39820</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3232,15 +3378,11 @@
         <v>-795.2393498100004</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3269,15 +3411,11 @@
         <v>-805.2393498100004</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3306,15 +3444,11 @@
         <v>-806.2193498100004</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3343,15 +3477,11 @@
         <v>-807.5516498100004</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3380,17 +3510,11 @@
         <v>-817.5516498100004</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>39630</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3423,11 +3547,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3460,11 +3580,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3493,17 +3609,11 @@
         <v>-925.6275498100005</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>39460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3532,17 +3642,11 @@
         <v>-924.7442498100005</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>39460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3575,11 +3679,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3612,11 +3712,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3649,11 +3745,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3686,11 +3778,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3723,11 +3811,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3760,11 +3844,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3797,11 +3877,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3834,11 +3910,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +3943,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3908,11 +3976,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3945,11 +4009,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4042,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4019,11 +4075,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4056,11 +4108,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4093,11 +4141,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4130,11 +4174,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4167,11 +4207,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4204,11 +4240,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4241,11 +4273,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4278,11 +4306,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4339,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +4372,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4389,11 +4405,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4426,11 +4438,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4463,11 +4471,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4504,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4537,11 +4537,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4570,17 +4566,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>39800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4609,17 +4599,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>39800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4648,17 +4632,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>39800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4687,17 +4665,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>39800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4726,17 +4698,11 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>39800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4765,17 +4731,11 @@
         <v>-917.4692498100006</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>39800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4804,17 +4764,11 @@
         <v>-913.7692498100006</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>39950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4847,11 +4801,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4884,11 +4834,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4921,11 +4867,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4958,11 +4900,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4995,11 +4933,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5032,11 +4966,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5069,11 +4999,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5106,11 +5032,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5139,17 +5061,11 @@
         <v>-526.0446011300006</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>39870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5178,17 +5094,11 @@
         <v>-526.0446011300006</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>39830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5221,17 +5131,13 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
       <c r="M138" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-13 BackTest ZEC.xlsx
@@ -451,7 +451,7 @@
         <v>-383.4957046100002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-384.3339046100002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1540,14 +1540,10 @@
         <v>-739.0304046100001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>39260</v>
-      </c>
-      <c r="J35" t="n">
-        <v>39260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
@@ -1577,19 +1573,11 @@
         <v>-729.3103046100001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39260</v>
-      </c>
-      <c r="J36" t="n">
-        <v>39260</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1621,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>39260</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1657,10 +1639,14 @@
         <v>-721.1289046100001</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>39490</v>
+      </c>
+      <c r="J38" t="n">
+        <v>39490</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1695,7 +1681,9 @@
       <c r="I39" t="n">
         <v>39490</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>39490</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -1734,7 +1722,9 @@
       <c r="I40" t="n">
         <v>39470</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>39490</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1771,7 +1761,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>39490</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1808,7 +1800,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>39490</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1845,7 +1839,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>39490</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1882,7 +1878,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>39490</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1919,7 +1917,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>39490</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1956,7 +1956,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>39490</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1993,7 +1995,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>39490</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2030,7 +2034,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>39490</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2064,10 +2070,14 @@
         <v>-806.4761046100001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>39390</v>
+      </c>
+      <c r="J49" t="n">
+        <v>39490</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2104,7 +2114,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>39490</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2141,7 +2153,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>39490</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2178,7 +2192,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>39490</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,7 +2231,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>39490</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,7 +2270,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>39490</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2289,7 +2309,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>39490</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2326,7 +2348,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>39490</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2363,7 +2387,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>39490</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,7 +2426,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>39490</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2437,7 +2465,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>39490</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2474,7 +2504,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>39490</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2511,7 +2543,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>39490</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,7 +2582,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>39490</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2585,7 +2621,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>39490</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2622,7 +2660,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>39490</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2659,7 +2699,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>39490</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,7 +2738,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>39490</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,7 +2777,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>39490</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2770,7 +2816,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>39490</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2807,7 +2855,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>39490</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,7 +2894,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>39490</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2881,7 +2933,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>39490</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2918,7 +2972,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>39490</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2955,7 +3011,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>39490</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,7 +3050,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>39490</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3029,7 +3089,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>39490</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3066,7 +3128,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>39490</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3103,7 +3167,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>39490</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3140,7 +3206,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>39490</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3177,7 +3245,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>39490</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3211,16 +3281,20 @@
         <v>-694.0499498100004</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>39490</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
       <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
@@ -3249,8 +3323,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3279,11 +3359,17 @@
         <v>-817.1925498100004</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3315,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3345,11 +3437,17 @@
         <v>-785.2393498100004</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3378,11 +3476,17 @@
         <v>-795.2393498100004</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3411,11 +3515,17 @@
         <v>-805.2393498100004</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3444,11 +3554,17 @@
         <v>-806.2193498100004</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3477,11 +3593,17 @@
         <v>-807.5516498100004</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3510,11 +3632,17 @@
         <v>-817.5516498100004</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3546,8 +3674,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3579,8 +3713,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3612,8 +3752,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3645,8 +3791,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3678,8 +3830,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3711,8 +3869,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3744,8 +3908,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3777,8 +3947,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3810,8 +3986,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3843,8 +4025,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3876,8 +4064,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3909,8 +4103,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3939,11 +4139,19 @@
         <v>-850.6356498100005</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>39650</v>
+      </c>
+      <c r="J102" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3975,8 +4183,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4008,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4041,8 +4261,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4074,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4107,8 +4339,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4140,8 +4378,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4173,8 +4417,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4206,8 +4456,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4239,8 +4495,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4272,8 +4534,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4305,8 +4573,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4338,8 +4612,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4371,8 +4651,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4404,8 +4690,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4437,8 +4729,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4470,8 +4768,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4503,8 +4807,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4536,8 +4846,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4569,8 +4885,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4602,8 +4924,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4632,11 +4960,19 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>39800</v>
+      </c>
+      <c r="J123" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +5001,19 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>39800</v>
+      </c>
+      <c r="J124" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4698,11 +5042,19 @@
         <v>-917.4892498100006</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>39800</v>
+      </c>
+      <c r="J125" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4731,11 +5083,19 @@
         <v>-917.4692498100006</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>39800</v>
+      </c>
+      <c r="J126" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4764,11 +5124,19 @@
         <v>-913.7692498100006</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>39950</v>
+      </c>
+      <c r="J127" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4800,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4833,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4866,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4899,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4932,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4965,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4998,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5130,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>39490</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-13 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-13 BackTest ZEC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>11.6087</v>
       </c>
       <c r="G2" t="n">
-        <v>-383.4957046100002</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>0.8381999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-384.3339046100002</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>35.7901</v>
       </c>
       <c r="G4" t="n">
-        <v>-420.1240046100002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2.9191</v>
       </c>
       <c r="G5" t="n">
-        <v>-420.1240046100002</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>0.4</v>
       </c>
       <c r="G6" t="n">
-        <v>-420.5240046100001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2.1121</v>
       </c>
       <c r="G7" t="n">
-        <v>-422.6361046100001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>-422.6361046100001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>0.4092</v>
       </c>
       <c r="G9" t="n">
-        <v>-423.0453046100001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>37.9982</v>
       </c>
       <c r="G10" t="n">
-        <v>-461.0435046100001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>2.9872</v>
       </c>
       <c r="G11" t="n">
-        <v>-458.0563046100002</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>8.033099999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-466.0894046100001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>101.5691</v>
       </c>
       <c r="G13" t="n">
-        <v>-567.6585046100001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>12.4257</v>
       </c>
       <c r="G14" t="n">
-        <v>-567.6585046100001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>0.9196</v>
       </c>
       <c r="G15" t="n">
-        <v>-566.7389046100002</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>2.067</v>
       </c>
       <c r="G16" t="n">
-        <v>-568.8059046100002</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>18.292</v>
       </c>
       <c r="G17" t="n">
-        <v>-550.5139046100002</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>9.785</v>
       </c>
       <c r="G18" t="n">
-        <v>-560.2989046100001</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1.1126</v>
       </c>
       <c r="G19" t="n">
-        <v>-559.1863046100001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2.6889</v>
       </c>
       <c r="G20" t="n">
-        <v>-561.8752046100001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>-561.8752046100001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1.6773</v>
       </c>
       <c r="G22" t="n">
-        <v>-560.1979046100001</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1.113</v>
       </c>
       <c r="G23" t="n">
-        <v>-559.0849046100001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>0.536</v>
       </c>
       <c r="G24" t="n">
-        <v>-558.5489046100001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>31.1693</v>
       </c>
       <c r="G25" t="n">
-        <v>-527.3796046100001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>0.6268</v>
       </c>
       <c r="G26" t="n">
-        <v>-528.0064046100001</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>14.8011</v>
       </c>
       <c r="G27" t="n">
-        <v>-542.8075046100001</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>27.755</v>
       </c>
       <c r="G28" t="n">
-        <v>-570.5625046100001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>5.2243</v>
       </c>
       <c r="G29" t="n">
-        <v>-565.3382046100002</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>174.7979</v>
       </c>
       <c r="G30" t="n">
-        <v>-740.1361046100002</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>27.0331</v>
       </c>
       <c r="G31" t="n">
-        <v>-740.1361046100002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1.3057</v>
       </c>
       <c r="G32" t="n">
-        <v>-738.8304046100002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>-738.6304046100001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>0.4</v>
       </c>
       <c r="G34" t="n">
-        <v>-739.0304046100001</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>0.4959</v>
       </c>
       <c r="G35" t="n">
-        <v>-739.0304046100001</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>9.7201</v>
       </c>
       <c r="G36" t="n">
-        <v>-729.3103046100001</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>8.1814</v>
       </c>
       <c r="G37" t="n">
-        <v>-721.1289046100001</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,22 +1523,19 @@
         <v>15.2092</v>
       </c>
       <c r="G38" t="n">
-        <v>-721.1289046100001</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>39490</v>
       </c>
       <c r="I38" t="n">
         <v>39490</v>
       </c>
-      <c r="J38" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1673,26 +1557,23 @@
         <v>15.975</v>
       </c>
       <c r="G39" t="n">
-        <v>-737.1039046100001</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>39490</v>
       </c>
       <c r="I39" t="n">
         <v>39490</v>
       </c>
-      <c r="J39" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1714,26 +1595,23 @@
         <v>0.03</v>
       </c>
       <c r="G40" t="n">
-        <v>-737.0739046100001</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>39470</v>
       </c>
       <c r="I40" t="n">
-        <v>39470</v>
-      </c>
-      <c r="J40" t="n">
         <v>39490</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1755,24 +1633,21 @@
         <v>0.3433</v>
       </c>
       <c r="G41" t="n">
-        <v>-737.0739046100001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
         <v>39490</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1794,24 +1669,21 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-737.0739046100001</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
         <v>39490</v>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1833,24 +1705,21 @@
         <v>1.7966</v>
       </c>
       <c r="G43" t="n">
-        <v>-738.8705046100001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
         <v>39490</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1872,24 +1741,21 @@
         <v>63.3482</v>
       </c>
       <c r="G44" t="n">
-        <v>-802.2187046100001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
         <v>39490</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1911,24 +1777,21 @@
         <v>0.0413</v>
       </c>
       <c r="G45" t="n">
-        <v>-802.1774046100002</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
         <v>39490</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1950,24 +1813,21 @@
         <v>0.0392</v>
       </c>
       <c r="G46" t="n">
-        <v>-802.1774046100002</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
         <v>39490</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1989,24 +1849,21 @@
         <v>3.761</v>
       </c>
       <c r="G47" t="n">
-        <v>-805.9384046100001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
         <v>39490</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2028,24 +1885,21 @@
         <v>4.261</v>
       </c>
       <c r="G48" t="n">
-        <v>-810.1994046100001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
         <v>39490</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2067,26 +1921,21 @@
         <v>3.7233</v>
       </c>
       <c r="G49" t="n">
-        <v>-806.4761046100001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>39390</v>
-      </c>
-      <c r="J49" t="n">
         <v>39490</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2108,24 +1957,21 @@
         <v>12.5442</v>
       </c>
       <c r="G50" t="n">
-        <v>-819.0203046100002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
         <v>39490</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2147,24 +1993,21 @@
         <v>0.3556</v>
       </c>
       <c r="G51" t="n">
-        <v>-819.3759046100001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
         <v>39490</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2186,24 +2029,21 @@
         <v>31.1772</v>
       </c>
       <c r="G52" t="n">
-        <v>-788.1987046100002</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
         <v>39490</v>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2225,24 +2065,21 @@
         <v>4.3741</v>
       </c>
       <c r="G53" t="n">
-        <v>-783.8246046100002</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
         <v>39490</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2264,24 +2101,21 @@
         <v>53.0311548</v>
       </c>
       <c r="G54" t="n">
-        <v>-730.7934498100002</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
         <v>39490</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,24 +2137,21 @@
         <v>54.4343</v>
       </c>
       <c r="G55" t="n">
-        <v>-785.2277498100002</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
         <v>39490</v>
       </c>
-      <c r="K55" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2342,24 +2173,21 @@
         <v>333.4164</v>
       </c>
       <c r="G56" t="n">
-        <v>-451.8113498100002</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
         <v>39490</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2381,24 +2209,21 @@
         <v>6.6498</v>
       </c>
       <c r="G57" t="n">
-        <v>-451.8113498100002</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
         <v>39490</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2420,24 +2245,21 @@
         <v>6</v>
       </c>
       <c r="G58" t="n">
-        <v>-457.8113498100002</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
         <v>39490</v>
       </c>
-      <c r="K58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2459,24 +2281,21 @@
         <v>285.8248</v>
       </c>
       <c r="G59" t="n">
-        <v>-743.6361498100002</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
         <v>39490</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2498,24 +2317,21 @@
         <v>1.5</v>
       </c>
       <c r="G60" t="n">
-        <v>-745.1361498100002</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
         <v>39490</v>
       </c>
-      <c r="K60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2537,24 +2353,21 @@
         <v>0.5</v>
       </c>
       <c r="G61" t="n">
-        <v>-745.6361498100002</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
         <v>39490</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2576,24 +2389,21 @@
         <v>3.6487</v>
       </c>
       <c r="G62" t="n">
-        <v>-741.9874498100003</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
         <v>39490</v>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2615,24 +2425,21 @@
         <v>299.7352</v>
       </c>
       <c r="G63" t="n">
-        <v>-442.2522498100003</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
         <v>39490</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2654,24 +2461,21 @@
         <v>41.202</v>
       </c>
       <c r="G64" t="n">
-        <v>-483.4542498100002</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
         <v>39490</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2693,24 +2497,21 @@
         <v>70</v>
       </c>
       <c r="G65" t="n">
-        <v>-553.4542498100002</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
         <v>39490</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2732,24 +2533,21 @@
         <v>0.03</v>
       </c>
       <c r="G66" t="n">
-        <v>-553.4242498100002</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
         <v>39490</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2771,24 +2569,21 @@
         <v>7.8686</v>
       </c>
       <c r="G67" t="n">
-        <v>-561.2928498100002</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
         <v>39490</v>
       </c>
-      <c r="K67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.022855153203343</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2810,24 +2605,15 @@
         <v>1.5403</v>
       </c>
       <c r="G68" t="n">
-        <v>-562.8331498100002</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2849,24 +2635,15 @@
         <v>100.3256</v>
       </c>
       <c r="G69" t="n">
-        <v>-663.1587498100002</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2888,24 +2665,15 @@
         <v>6</v>
       </c>
       <c r="G70" t="n">
-        <v>-669.1587498100002</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2927,24 +2695,15 @@
         <v>3.6854</v>
       </c>
       <c r="G71" t="n">
-        <v>-669.1587498100002</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2966,24 +2725,15 @@
         <v>26.4751</v>
       </c>
       <c r="G72" t="n">
-        <v>-669.1587498100002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3005,24 +2755,15 @@
         <v>0.8864</v>
       </c>
       <c r="G73" t="n">
-        <v>-668.2723498100003</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3044,24 +2785,15 @@
         <v>0.2509</v>
       </c>
       <c r="G74" t="n">
-        <v>-668.0214498100003</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3083,24 +2815,15 @@
         <v>0.8475</v>
       </c>
       <c r="G75" t="n">
-        <v>-668.0214498100003</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,24 +2845,15 @@
         <v>0.176</v>
       </c>
       <c r="G76" t="n">
-        <v>-668.0214498100003</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3161,24 +2875,15 @@
         <v>0.1386</v>
       </c>
       <c r="G77" t="n">
-        <v>-668.1600498100003</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3200,24 +2905,15 @@
         <v>3.8562</v>
       </c>
       <c r="G78" t="n">
-        <v>-664.3038498100003</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3239,24 +2935,15 @@
         <v>30.6257</v>
       </c>
       <c r="G79" t="n">
-        <v>-694.9295498100004</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3278,24 +2965,15 @@
         <v>0.8796</v>
       </c>
       <c r="G80" t="n">
-        <v>-694.0499498100004</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3317,24 +2995,15 @@
         <v>1.7966</v>
       </c>
       <c r="G81" t="n">
-        <v>-695.8465498100004</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3356,24 +3025,15 @@
         <v>121.346</v>
       </c>
       <c r="G82" t="n">
-        <v>-817.1925498100004</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3395,24 +3055,15 @@
         <v>0.0235</v>
       </c>
       <c r="G83" t="n">
-        <v>-817.1690498100004</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3434,24 +3085,15 @@
         <v>31.9297</v>
       </c>
       <c r="G84" t="n">
-        <v>-785.2393498100004</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3473,24 +3115,15 @@
         <v>10</v>
       </c>
       <c r="G85" t="n">
-        <v>-795.2393498100004</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3512,24 +3145,15 @@
         <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>-805.2393498100004</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3551,24 +3175,15 @@
         <v>0.98</v>
       </c>
       <c r="G87" t="n">
-        <v>-806.2193498100004</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3590,24 +3205,15 @@
         <v>1.3323</v>
       </c>
       <c r="G88" t="n">
-        <v>-807.5516498100004</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3629,24 +3235,15 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>-817.5516498100004</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3668,24 +3265,15 @@
         <v>105.3818</v>
       </c>
       <c r="G90" t="n">
-        <v>-922.9334498100004</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3707,24 +3295,15 @@
         <v>2.6941</v>
       </c>
       <c r="G91" t="n">
-        <v>-925.6275498100005</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3746,24 +3325,15 @@
         <v>3</v>
       </c>
       <c r="G92" t="n">
-        <v>-925.6275498100005</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3785,24 +3355,15 @@
         <v>0.8833</v>
       </c>
       <c r="G93" t="n">
-        <v>-924.7442498100005</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3824,24 +3385,15 @@
         <v>7.553</v>
       </c>
       <c r="G94" t="n">
-        <v>-924.7442498100005</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3863,24 +3415,15 @@
         <v>0.1932</v>
       </c>
       <c r="G95" t="n">
-        <v>-924.7442498100005</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3902,24 +3445,15 @@
         <v>1.163</v>
       </c>
       <c r="G96" t="n">
-        <v>-924.7442498100005</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3941,24 +3475,15 @@
         <v>2.5</v>
       </c>
       <c r="G97" t="n">
-        <v>-924.7442498100005</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3980,24 +3505,15 @@
         <v>2.7593</v>
       </c>
       <c r="G98" t="n">
-        <v>-924.7442498100005</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4019,24 +3535,15 @@
         <v>10.0843</v>
       </c>
       <c r="G99" t="n">
-        <v>-914.6599498100005</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4058,24 +3565,15 @@
         <v>44.5906</v>
       </c>
       <c r="G100" t="n">
-        <v>-870.0693498100005</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4097,24 +3595,15 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-870.0693498100005</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4136,26 +3625,15 @@
         <v>19.4337</v>
       </c>
       <c r="G102" t="n">
-        <v>-850.6356498100005</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>39650</v>
-      </c>
-      <c r="J102" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4177,24 +3655,15 @@
         <v>110.99</v>
       </c>
       <c r="G103" t="n">
-        <v>-961.6256498100005</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4216,24 +3685,15 @@
         <v>29.3</v>
       </c>
       <c r="G104" t="n">
-        <v>-932.3256498100005</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4255,24 +3715,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-942.3256498100005</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4294,24 +3745,15 @@
         <v>25.7591</v>
       </c>
       <c r="G106" t="n">
-        <v>-968.0847498100005</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4333,24 +3775,15 @@
         <v>81.90000000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>-886.1847498100005</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4372,24 +3805,15 @@
         <v>7.7462</v>
       </c>
       <c r="G108" t="n">
-        <v>-893.9309498100006</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4411,24 +3835,15 @@
         <v>2.3127</v>
       </c>
       <c r="G109" t="n">
-        <v>-891.6182498100006</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4450,24 +3865,15 @@
         <v>12</v>
       </c>
       <c r="G110" t="n">
-        <v>-879.6182498100006</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4489,24 +3895,15 @@
         <v>23.31</v>
       </c>
       <c r="G111" t="n">
-        <v>-902.9282498100006</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4528,24 +3925,15 @@
         <v>27.6194</v>
       </c>
       <c r="G112" t="n">
-        <v>-875.3088498100005</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4567,24 +3955,15 @@
         <v>58.3817</v>
       </c>
       <c r="G113" t="n">
-        <v>-933.6905498100006</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4606,24 +3985,15 @@
         <v>14.1413</v>
       </c>
       <c r="G114" t="n">
-        <v>-919.5492498100006</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4645,24 +4015,15 @@
         <v>2.06</v>
       </c>
       <c r="G115" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4684,24 +4045,15 @@
         <v>60.9367</v>
       </c>
       <c r="G116" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4723,24 +4075,15 @@
         <v>8.679399999999999</v>
       </c>
       <c r="G117" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4762,24 +4105,15 @@
         <v>31.1423</v>
       </c>
       <c r="G118" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4801,24 +4135,15 @@
         <v>0.9987</v>
       </c>
       <c r="G119" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4840,24 +4165,15 @@
         <v>19.1588</v>
       </c>
       <c r="G120" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4879,24 +4195,15 @@
         <v>53.5003</v>
       </c>
       <c r="G121" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4918,24 +4225,15 @@
         <v>10.1348</v>
       </c>
       <c r="G122" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4957,26 +4255,15 @@
         <v>19.9937</v>
       </c>
       <c r="G123" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>39800</v>
-      </c>
-      <c r="J123" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4998,26 +4285,15 @@
         <v>0.5336</v>
       </c>
       <c r="G124" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>39800</v>
-      </c>
-      <c r="J124" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5039,26 +4315,15 @@
         <v>23.758</v>
       </c>
       <c r="G125" t="n">
-        <v>-917.4892498100006</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>39800</v>
-      </c>
-      <c r="J125" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5080,26 +4345,15 @@
         <v>0.02</v>
       </c>
       <c r="G126" t="n">
-        <v>-917.4692498100006</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>39800</v>
-      </c>
-      <c r="J126" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5121,26 +4375,15 @@
         <v>3.7</v>
       </c>
       <c r="G127" t="n">
-        <v>-913.7692498100006</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>39950</v>
-      </c>
-      <c r="J127" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5162,24 +4405,15 @@
         <v>425.6893</v>
       </c>
       <c r="G128" t="n">
-        <v>-488.0799498100006</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5201,24 +4435,15 @@
         <v>1.3018</v>
       </c>
       <c r="G129" t="n">
-        <v>-489.3817498100006</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5240,24 +4465,15 @@
         <v>0.2017</v>
       </c>
       <c r="G130" t="n">
-        <v>-489.5834498100006</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5279,24 +4495,15 @@
         <v>28.2297</v>
       </c>
       <c r="G131" t="n">
-        <v>-517.8131498100006</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5318,24 +4525,15 @@
         <v>5.4134</v>
       </c>
       <c r="G132" t="n">
-        <v>-512.3997498100006</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5357,24 +4555,15 @@
         <v>0.02</v>
       </c>
       <c r="G133" t="n">
-        <v>-512.3797498100006</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5396,24 +4585,15 @@
         <v>0.03245132</v>
       </c>
       <c r="G134" t="n">
-        <v>-512.4122011300005</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5435,24 +4615,15 @@
         <v>4.5324</v>
       </c>
       <c r="G135" t="n">
-        <v>-516.9446011300006</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5474,24 +4645,15 @@
         <v>9.1</v>
       </c>
       <c r="G136" t="n">
-        <v>-526.0446011300006</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5513,24 +4675,15 @@
         <v>2</v>
       </c>
       <c r="G137" t="n">
-        <v>-526.0446011300006</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5552,24 +4705,15 @@
         <v>2</v>
       </c>
       <c r="G138" t="n">
-        <v>-528.0446011300006</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>39490</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
